--- a/LEETCODE LOG.xlsx
+++ b/LEETCODE LOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17328\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBD508F-5D72-41C5-BFFB-922EF52D312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3884D02F-D204-4E35-A9E8-563B6E84DD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1920" windowWidth="21600" windowHeight="11295" xr2:uid="{103C4D36-ED5A-4A5F-A786-724E0507B6F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{103C4D36-ED5A-4A5F-A786-724E0507B6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Coding Challenge" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Daily Coding Challenge</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Binary Search</t>
   </si>
   <si>
-    <t>1. First and Second Layers: Arrays 101</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Binary Tree</t>
   </si>
   <si>
@@ -130,13 +127,46 @@
   </si>
   <si>
     <t>solution</t>
+  </si>
+  <si>
+    <t>Problems - LeetCode</t>
+  </si>
+  <si>
+    <t>brute force method</t>
+  </si>
+  <si>
+    <t>Valid Sudoku (Leet Code-36) - SiteInvokers</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Arrays 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserting </t>
+  </si>
+  <si>
+    <t>Deleting</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>In Place operations</t>
+  </si>
+  <si>
+    <t>  Duplicate Zeros</t>
+  </si>
+  <si>
+    <t>  Merge Sorted Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +197,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -306,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -328,34 +364,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -551,6 +575,28 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -679,20 +725,20 @@
     <tableColumn id="3" xr3:uid="{BE0AB09A-15A6-4DC8-9BDD-FA8A8D8D3E02}" name="Attempted?" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{81A6493A-755D-4EDA-B215-2B4E7D9B20EC}" name="Revisit?" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{594663B5-84AD-4B3A-B58E-405C3295518D}" name="Difficulty" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{B2E12966-088C-4B57-921C-73DA82702EF9}" name="solution" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{B2E12966-088C-4B57-921C-73DA82702EF9}" name="solution" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFEFAE31-5D2B-4445-B712-A970A45DC8FD}" name="Table4" displayName="Table4" ref="A1:D20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D20" xr:uid="{CFEFAE31-5D2B-4445-B712-A970A45DC8FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFEFAE31-5D2B-4445-B712-A970A45DC8FD}" name="Table4" displayName="Table4" ref="A1:D27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D27" xr:uid="{CFEFAE31-5D2B-4445-B712-A970A45DC8FD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77DCA8FD-B628-4DF6-AFB6-74090EA3F170}" name="Explore Card Track" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{96C41F69-DEF1-4326-BB56-38941910EE23}" name="due date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F107C339-BB26-481D-9674-8D3CEF3BDBC8}" name="Attempted?" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{18C9A279-B4B0-41A8-A308-CC5AA03EBAF1}" name="Revisit?" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{77DCA8FD-B628-4DF6-AFB6-74090EA3F170}" name="Explore Card Track" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{96C41F69-DEF1-4326-BB56-38941910EE23}" name="due date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F107C339-BB26-481D-9674-8D3CEF3BDBC8}" name="Attempted?" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{18C9A279-B4B0-41A8-A308-CC5AA03EBAF1}" name="Revisit?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -995,27 +1041,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3DAC7C-E570-4662-B09A-B9E91348150F}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1032,10 +1079,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1052,20 +1102,30 @@
         <v>7</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" s="3">
         <v>44888</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3">
         <v>44889</v>
@@ -1075,7 +1135,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>44890</v>
@@ -1085,7 +1145,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3">
         <v>44891</v>
@@ -1095,7 +1155,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3">
         <v>44892</v>
@@ -1105,7 +1165,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3">
         <v>44893</v>
@@ -1115,7 +1175,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3">
         <v>44894</v>
@@ -1125,7 +1185,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3">
         <v>44895</v>
@@ -1135,7 +1195,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3">
         <v>44896</v>
@@ -1145,7 +1205,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3">
         <v>44897</v>
@@ -1155,7 +1215,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3">
         <v>44898</v>
@@ -1165,7 +1225,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3">
         <v>44899</v>
@@ -1175,7 +1235,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3">
         <v>44900</v>
@@ -1448,20 +1508,23 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{6447A06C-A6B8-436E-99E4-BCBBF3B78897}"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://leetcode.com/problemset/all/" xr:uid="{9B604351-0E6F-4A45-B249-2B499AFDA03D}"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://siteinvokers.com/valid-sudoku-leet-code-36/" xr:uid="{3503E038-5BA2-4D54-9D25-35B38E79C07B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3B9107-8F8E-406B-AD5A-DA1AE1D6CD69}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>2</v>
@@ -1489,193 +1552,251 @@
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B2" s="16">
-        <v>44888</v>
+        <v>44891</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="16">
-        <v>44890</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B3" s="22"/>
       <c r="C3" s="19"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="16">
-        <v>44892</v>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="28">
+        <v>44889</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="16">
-        <v>44894</v>
+    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="28">
+        <v>44889</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16">
-        <v>44896</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B6" s="22"/>
       <c r="C6" s="19"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="16">
-        <v>44898</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B7" s="22"/>
       <c r="C7" s="19"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44900</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B8" s="22"/>
       <c r="C8" s="19"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="16">
-        <v>44902</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B10" s="16">
-        <v>44904</v>
+        <v>44890</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="16">
-        <v>44906</v>
+        <v>44892</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" s="16">
-        <v>44908</v>
+        <v>44894</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="16">
-        <v>44910</v>
+        <v>44896</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" s="16">
-        <v>44912</v>
+        <v>44898</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B15" s="16">
-        <v>44914</v>
+        <v>44900</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B16" s="16">
-        <v>44916</v>
+        <v>44902</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="16">
-        <v>44918</v>
+        <v>44904</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18" s="16">
-        <v>44920</v>
+        <v>44906</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" s="16">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="16">
-        <v>44924</v>
+        <v>44910</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>44912</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="16">
+        <v>44914</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="16">
+        <v>44916</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="16">
+        <v>44918</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="16">
+        <v>44920</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16">
+        <v>44922</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="16">
+        <v>44924</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LEETCODE LOG.xlsx
+++ b/LEETCODE LOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17328\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3884D02F-D204-4E35-A9E8-563B6E84DD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8610E46F-2A26-49E9-8B72-1D4E42EC3221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{103C4D36-ED5A-4A5F-A786-724E0507B6F3}"/>
+    <workbookView xWindow="3045" yWindow="2955" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{103C4D36-ED5A-4A5F-A786-724E0507B6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Coding Challenge" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Daily Coding Challenge</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>  Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Intro</t>
   </si>
 </sst>
 </file>
@@ -199,12 +202,13 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +218,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -365,15 +381,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1043,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3DAC7C-E570-4662-B09A-B9E91348150F}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1524,7 +1539,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,61 +1577,71 @@
     </row>
     <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="24">
+        <v>44888</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="28">
+      <c r="B4" s="24">
         <v>44889</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="28">
+    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="24">
         <v>44889</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="22"/>
+      <c r="A6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="24">
+        <v>44889</v>
+      </c>
       <c r="C6" s="19"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="B7" s="24">
+        <v>44889</v>
+      </c>
       <c r="C7" s="19"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="24">
+        <v>44890</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">

--- a/LEETCODE LOG.xlsx
+++ b/LEETCODE LOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17328\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8610E46F-2A26-49E9-8B72-1D4E42EC3221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B2AC83-B7F5-442A-A6F0-1E329774D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2955" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{103C4D36-ED5A-4A5F-A786-724E0507B6F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{103C4D36-ED5A-4A5F-A786-724E0507B6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Coding Challenge" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Daily Coding Challenge</t>
   </si>
@@ -163,6 +163,27 @@
   </si>
   <si>
     <t>Intro</t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>(3) Python DFS + Backtrack solution - LeetCode Discuss</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2225. Find Players With Zero or One Losses</t>
+  </si>
+  <si>
+    <t>Yes, my solutions too ineffcient for the large test cases</t>
+  </si>
+  <si>
+    <t>2256. Minimum Average Difference</t>
   </si>
 </sst>
 </file>
@@ -358,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -382,13 +403,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1058,15 +1082,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3DAC7C-E570-4662-B09A-B9E91348150F}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" customWidth="1"/>
@@ -1141,14 +1165,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B5" s="3">
         <v>44889</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1181,13 +1215,21 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" s="3">
         <v>44893</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1241,7 +1283,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B15" s="3">
         <v>44899</v>
       </c>
@@ -1525,11 +1569,12 @@
     <hyperlink ref="F3" r:id="rId1" xr:uid="{6447A06C-A6B8-436E-99E4-BCBBF3B78897}"/>
     <hyperlink ref="H2" r:id="rId2" display="https://leetcode.com/problemset/all/" xr:uid="{9B604351-0E6F-4A45-B249-2B499AFDA03D}"/>
     <hyperlink ref="F4" r:id="rId3" display="https://siteinvokers.com/valid-sudoku-leet-code-36/" xr:uid="{3503E038-5BA2-4D54-9D25-35B38E79C07B}"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://leetcode.com/problems/word-search/discuss/318208/Python-DFS-%2B-Backtrack-solution" xr:uid="{E871097B-4F58-4567-93B8-D4B0D7F8ED81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1538,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3B9107-8F8E-406B-AD5A-DA1AE1D6CD69}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,69 +1624,69 @@
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>44888</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>44889</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>44889</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>44889</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>44889</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>44890</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
@@ -1650,8 +1695,8 @@
       <c r="B10" s="16">
         <v>44890</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
@@ -1660,8 +1705,8 @@
       <c r="B11" s="16">
         <v>44892</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
@@ -1670,8 +1715,8 @@
       <c r="B12" s="16">
         <v>44894</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
@@ -1680,8 +1725,8 @@
       <c r="B13" s="16">
         <v>44896</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
@@ -1690,8 +1735,8 @@
       <c r="B14" s="16">
         <v>44898</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
